--- a/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
+++ b/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\StudentResearchProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Gliederung Rohform</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Gliederung</t>
   </si>
   <si>
-    <t xml:space="preserve"> Literatur auswählen/lesen</t>
-  </si>
-  <si>
     <t>Rohversion Doku</t>
   </si>
   <si>
@@ -72,13 +69,28 @@
   </si>
   <si>
     <t>Doku drucken/binden</t>
+  </si>
+  <si>
+    <t>Im Zeitplan</t>
+  </si>
+  <si>
+    <t>Nicht vollständig im Zeitplan</t>
+  </si>
+  <si>
+    <t>Nicht im Zeitplan</t>
+  </si>
+  <si>
+    <t>Vor dem Zeitplan / Nicht benötigte Zeit</t>
+  </si>
+  <si>
+    <t>Literatur auswählen/lesen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +98,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +134,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,12 +162,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:K23"/>
+  <dimension ref="A7:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -465,7 +499,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -473,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -483,7 +517,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -491,7 +525,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -499,43 +533,43 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -543,7 +577,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -551,7 +585,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -559,7 +593,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -567,7 +601,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -575,13 +609,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
+++ b/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +105,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -171,6 +184,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -454,7 +469,7 @@
   <dimension ref="A7:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,21 +528,22 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -565,29 +581,29 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
@@ -595,7 +611,7 @@
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>

--- a/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
+++ b/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -186,6 +192,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -469,7 +476,7 @@
   <dimension ref="A7:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,16 +543,16 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -604,14 +611,14 @@
         <v>9</v>
       </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
@@ -619,9 +626,9 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">

--- a/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
+++ b/doc/UnrealCup_Meilensteinplan_Sem6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\StudentResearchProject\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Local Workspaces\StudentResearchProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Gliederung Rohform</t>
   </si>
@@ -80,27 +80,26 @@
     <t>Nicht im Zeitplan</t>
   </si>
   <si>
-    <t>Vor dem Zeitplan / Nicht benötigte Zeit</t>
-  </si>
-  <si>
     <t>Literatur auswählen/lesen</t>
+  </si>
+  <si>
+    <t>Verworfen</t>
+  </si>
+  <si>
+    <t>Vor dem Zeitplan /</t>
+  </si>
+  <si>
+    <t>Nicht benötigte Zeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -177,22 +176,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -473,18 +613,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:K28"/>
+  <dimension ref="A7:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="15" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>16</v>
       </c>
@@ -520,146 +661,360 @@
         <f>I7+1</f>
         <v>24</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <f t="shared" ref="K7:L7" si="1">J7+1</f>
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:N7" si="2">L7+1</f>
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="25"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="J22" s="28"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>